--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H2">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N2">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q2">
-        <v>8.993905414586893</v>
+        <v>0.9217978480533333</v>
       </c>
       <c r="R2">
-        <v>80.94514873128202</v>
+        <v>8.29618063248</v>
       </c>
       <c r="S2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="T2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H3">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>37.180959</v>
       </c>
       <c r="O3">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P3">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q3">
-        <v>6.232697862999668</v>
+        <v>0.6200875093313334</v>
       </c>
       <c r="R3">
-        <v>56.09428076699701</v>
+        <v>5.580787583982</v>
       </c>
       <c r="S3">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="T3">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H4">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N4">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q4">
-        <v>2.211336182262778</v>
+        <v>0.5385361472284445</v>
       </c>
       <c r="R4">
-        <v>19.902025640365</v>
+        <v>4.846825325056</v>
       </c>
       <c r="S4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="T4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5028943333333334</v>
+        <v>0.05003266666666667</v>
       </c>
       <c r="H5">
-        <v>1.508683</v>
+        <v>0.150098</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N5">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q5">
-        <v>2.837851162458889</v>
+        <v>0.2811984964013333</v>
       </c>
       <c r="R5">
-        <v>25.54066046213</v>
+        <v>2.530786467612</v>
       </c>
       <c r="S5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="T5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
     </row>
   </sheetData>
